--- a/biology/Botanique/Mahonia_du_Japon/Mahonia_du_Japon.xlsx
+++ b/biology/Botanique/Mahonia_du_Japon/Mahonia_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berberis japonica
 Le Mahonia du Japon est une espèce de plante de la famille des Berberidaceae, tribu des Berberideae. On trouve maintenant cette espèce sous le nom de Berberis japonica (Thunb.) Spreng.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste (1 à 2 m) rustique (−20 °C) aux feuilles persistantes et à floraison hivernale (février-mars voire dès novembre) dont l'origine reste incertaine, probablement de l'île de Taïwan car contrairement à ce que pourrait laisser supposer son nom, cette espèce ne semble pas se rencontrer à l'état sauvage au Japon. Ses fruits bleu sombre sont recouverts de pruine et mûrissent en juillet. L'espèce est très proche du Mahonia bealei (Chine).
 </t>
@@ -543,11 +557,13 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ilex japonica Thunb.
 Berberis japonica (Thunb.) R.Br.
-Mahonia bealei[1]</t>
+Mahonia bealei</t>
         </is>
       </c>
     </row>
